--- a/Project2/map/map_stage3.xlsx
+++ b/Project2/map/map_stage3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JumpKing\Project2\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0B2DA0-DB97-4BE6-A8B3-4C8939AB773A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7294FE-DC05-44CE-95FF-6B668F8C5592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{48E8A6F0-D45C-499F-B0E9-10C3D3B96F46}"/>
   </bookViews>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7174F57D-9AE7-43AF-99BF-E0807E6314AC}">
   <dimension ref="A1:AO300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="AN300" sqref="A1:AN300"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="56" workbookViewId="0">
+      <selection sqref="A1:AN300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23555,38 +23555,38 @@
         <v>0</v>
       </c>
       <c r="T189" s="2">
+        <v>0</v>
+      </c>
+      <c r="U189" s="2">
+        <v>0</v>
+      </c>
+      <c r="V189" s="2">
+        <v>0</v>
+      </c>
+      <c r="W189" s="2">
+        <v>0</v>
+      </c>
+      <c r="X189" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y189" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD189" s="2">
         <v>93</v>
       </c>
-      <c r="U189" s="2">
-        <v>0</v>
-      </c>
-      <c r="V189" s="2">
-        <v>0</v>
-      </c>
-      <c r="W189" s="2">
-        <v>0</v>
-      </c>
-      <c r="X189" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y189" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z189" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA189" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB189" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC189" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD189" s="2">
-        <v>0</v>
-      </c>
       <c r="AE189" s="2">
         <v>0</v>
       </c>
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="AI189" s="2">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="AJ189" s="2">
         <v>0</v>
@@ -23799,7 +23799,7 @@
         <v>0</v>
       </c>
       <c r="T191" s="2">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="U191" s="2">
         <v>0</v>
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
       <c r="AJ202" s="2">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="AK202" s="2">
         <v>0</v>
@@ -30676,7 +30676,7 @@
         <v>0</v>
       </c>
       <c r="AF247" s="2">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AG247" s="2">
         <v>0</v>
@@ -30685,7 +30685,7 @@
         <v>0</v>
       </c>
       <c r="AI247" s="2">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="AJ247" s="2">
         <v>0</v>
@@ -37175,7 +37175,7 @@
       <formula>A1048563=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AN106 A107:X117 Y107:AN118 A118:A124 B119:AN124 A125:AN300 AO218:AO226 B2:AM217">
+  <conditionalFormatting sqref="A1:AN106 B2:AM217 A107:X117 Y107:AN118 A118:A124 B119:AN124 A125:AN300 AO218:AO226">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>50</formula>
     </cfRule>
@@ -37189,7 +37189,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO218:AO226 A1:AN300">
+  <conditionalFormatting sqref="A1:AN300 AO218:AO226">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>60</formula>
     </cfRule>

--- a/Project2/map/map_stage3.xlsx
+++ b/Project2/map/map_stage3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JumpKing\Project2\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7294FE-DC05-44CE-95FF-6B668F8C5592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509BEEBC-0CA8-4D1E-8D5B-1A1AC5AFF5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{48E8A6F0-D45C-499F-B0E9-10C3D3B96F46}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{48E8A6F0-D45C-499F-B0E9-10C3D3B96F46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7174F57D-9AE7-43AF-99BF-E0807E6314AC}">
   <dimension ref="A1:AO300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="56" workbookViewId="0">
-      <selection sqref="A1:AN300"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="55" workbookViewId="0">
+      <selection activeCell="AN300" sqref="A1:AN300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2517,118 +2517,118 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="O17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="R17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="S17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="T17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="U17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="V17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="W17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Y17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Z17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AA17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AB17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AC17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AD17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AE17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AF17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AG17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AI17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AJ17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AK17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AL17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AM17" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AN17" s="2">
         <v>1</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="18" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="AG18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="2">
         <v>0</v>
@@ -2753,12 +2753,12 @@
         <v>0</v>
       </c>
       <c r="AN18" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="AG19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="2">
         <v>0</v>
@@ -2875,12 +2875,12 @@
         <v>0</v>
       </c>
       <c r="AN19" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="AG20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="2">
         <v>0</v>
@@ -2997,12 +2997,12 @@
         <v>0</v>
       </c>
       <c r="AN20" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="AG21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21" s="2">
         <v>0</v>
@@ -3119,12 +3119,12 @@
         <v>0</v>
       </c>
       <c r="AN21" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="AG22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="2">
         <v>0</v>
@@ -3241,12 +3241,12 @@
         <v>0</v>
       </c>
       <c r="AN22" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="2">
         <v>0</v>
@@ -3363,12 +3363,12 @@
         <v>0</v>
       </c>
       <c r="AN23" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="2">
         <v>0</v>
@@ -3485,12 +3485,12 @@
         <v>0</v>
       </c>
       <c r="AN24" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -3607,12 +3607,12 @@
         <v>0</v>
       </c>
       <c r="AN25" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -3729,12 +3729,12 @@
         <v>0</v>
       </c>
       <c r="AN26" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -3851,12 +3851,12 @@
         <v>0</v>
       </c>
       <c r="AN27" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -3973,12 +3973,12 @@
         <v>0</v>
       </c>
       <c r="AN28" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -4053,13 +4053,13 @@
         <v>0</v>
       </c>
       <c r="Z29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA29" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB29" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC29" s="2">
         <v>2</v>
@@ -4068,14 +4068,14 @@
         <v>2</v>
       </c>
       <c r="AE29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG29" s="2">
         <v>3</v>
       </c>
-      <c r="AF29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>0</v>
-      </c>
       <c r="AH29" s="2">
         <v>0</v>
       </c>
@@ -4095,12 +4095,12 @@
         <v>0</v>
       </c>
       <c r="AN29" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -4217,12 +4217,12 @@
         <v>0</v>
       </c>
       <c r="AN30" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -4339,12 +4339,12 @@
         <v>0</v>
       </c>
       <c r="AN31" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -4461,12 +4461,12 @@
         <v>0</v>
       </c>
       <c r="AN32" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -4583,12 +4583,12 @@
         <v>0</v>
       </c>
       <c r="AN33" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -4705,12 +4705,12 @@
         <v>0</v>
       </c>
       <c r="AN34" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -4827,12 +4827,12 @@
         <v>0</v>
       </c>
       <c r="AN35" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -4949,12 +4949,12 @@
         <v>0</v>
       </c>
       <c r="AN36" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -5071,12 +5071,12 @@
         <v>0</v>
       </c>
       <c r="AN37" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -5193,12 +5193,12 @@
         <v>0</v>
       </c>
       <c r="AN38" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -5315,12 +5315,12 @@
         <v>0</v>
       </c>
       <c r="AN39" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -5437,12 +5437,12 @@
         <v>0</v>
       </c>
       <c r="AN40" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -5559,12 +5559,12 @@
         <v>0</v>
       </c>
       <c r="AN41" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -5681,12 +5681,12 @@
         <v>0</v>
       </c>
       <c r="AN42" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -5803,12 +5803,12 @@
         <v>0</v>
       </c>
       <c r="AN43" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -5925,12 +5925,12 @@
         <v>0</v>
       </c>
       <c r="AN44" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -6047,12 +6047,12 @@
         <v>0</v>
       </c>
       <c r="AN45" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -6169,12 +6169,12 @@
         <v>0</v>
       </c>
       <c r="AN46" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -6291,12 +6291,12 @@
         <v>0</v>
       </c>
       <c r="AN47" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -6413,12 +6413,12 @@
         <v>0</v>
       </c>
       <c r="AN48" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -6535,12 +6535,12 @@
         <v>0</v>
       </c>
       <c r="AN49" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -6657,12 +6657,12 @@
         <v>0</v>
       </c>
       <c r="AN50" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -6779,12 +6779,12 @@
         <v>0</v>
       </c>
       <c r="AN51" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -6901,12 +6901,12 @@
         <v>0</v>
       </c>
       <c r="AN52" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -7023,12 +7023,12 @@
         <v>0</v>
       </c>
       <c r="AN53" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -7145,12 +7145,12 @@
         <v>0</v>
       </c>
       <c r="AN54" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -7267,12 +7267,12 @@
         <v>0</v>
       </c>
       <c r="AN55" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -7389,12 +7389,12 @@
         <v>0</v>
       </c>
       <c r="AN56" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -7511,12 +7511,12 @@
         <v>0</v>
       </c>
       <c r="AN57" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -7633,12 +7633,12 @@
         <v>0</v>
       </c>
       <c r="AN58" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -7755,12 +7755,12 @@
         <v>0</v>
       </c>
       <c r="AN59" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -7877,12 +7877,12 @@
         <v>0</v>
       </c>
       <c r="AN60" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -7999,12 +7999,12 @@
         <v>0</v>
       </c>
       <c r="AN61" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -8121,12 +8121,12 @@
         <v>0</v>
       </c>
       <c r="AN62" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -8243,12 +8243,12 @@
         <v>0</v>
       </c>
       <c r="AN63" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -8365,12 +8365,12 @@
         <v>0</v>
       </c>
       <c r="AN64" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B65" s="2">
         <v>0</v>
@@ -8487,12 +8487,12 @@
         <v>0</v>
       </c>
       <c r="AN65" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -8609,12 +8609,12 @@
         <v>0</v>
       </c>
       <c r="AN66" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -8731,12 +8731,12 @@
         <v>0</v>
       </c>
       <c r="AN67" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -8853,12 +8853,12 @@
         <v>0</v>
       </c>
       <c r="AN68" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -8975,12 +8975,12 @@
         <v>0</v>
       </c>
       <c r="AN69" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -9097,12 +9097,12 @@
         <v>0</v>
       </c>
       <c r="AN70" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -9219,12 +9219,12 @@
         <v>0</v>
       </c>
       <c r="AN71" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -9341,12 +9341,12 @@
         <v>0</v>
       </c>
       <c r="AN72" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -9463,12 +9463,12 @@
         <v>0</v>
       </c>
       <c r="AN73" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -9585,12 +9585,12 @@
         <v>0</v>
       </c>
       <c r="AN74" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -9707,12 +9707,12 @@
         <v>0</v>
       </c>
       <c r="AN75" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -9829,12 +9829,12 @@
         <v>0</v>
       </c>
       <c r="AN76" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
@@ -9951,12 +9951,12 @@
         <v>0</v>
       </c>
       <c r="AN77" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -10073,12 +10073,12 @@
         <v>0</v>
       </c>
       <c r="AN78" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
@@ -10195,12 +10195,12 @@
         <v>0</v>
       </c>
       <c r="AN79" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
@@ -10317,12 +10317,12 @@
         <v>0</v>
       </c>
       <c r="AN80" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B81" s="2">
         <v>0</v>
@@ -10439,12 +10439,12 @@
         <v>0</v>
       </c>
       <c r="AN81" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B82" s="2">
         <v>0</v>
@@ -10561,12 +10561,12 @@
         <v>0</v>
       </c>
       <c r="AN82" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
@@ -10683,12 +10683,12 @@
         <v>0</v>
       </c>
       <c r="AN83" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B84" s="2">
         <v>0</v>
@@ -10805,12 +10805,12 @@
         <v>0</v>
       </c>
       <c r="AN84" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
@@ -10927,12 +10927,12 @@
         <v>0</v>
       </c>
       <c r="AN85" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -11049,12 +11049,12 @@
         <v>0</v>
       </c>
       <c r="AN86" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B87" s="2">
         <v>0</v>
@@ -11171,12 +11171,12 @@
         <v>0</v>
       </c>
       <c r="AN87" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B88" s="2">
         <v>0</v>
@@ -11293,12 +11293,12 @@
         <v>0</v>
       </c>
       <c r="AN88" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B89" s="2">
         <v>0</v>
@@ -11415,12 +11415,12 @@
         <v>0</v>
       </c>
       <c r="AN89" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -11537,12 +11537,12 @@
         <v>0</v>
       </c>
       <c r="AN90" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -11659,12 +11659,12 @@
         <v>0</v>
       </c>
       <c r="AN91" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B92" s="2">
         <v>0</v>
@@ -11781,12 +11781,12 @@
         <v>0</v>
       </c>
       <c r="AN92" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B93" s="2">
         <v>0</v>
@@ -11903,12 +11903,12 @@
         <v>0</v>
       </c>
       <c r="AN93" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B94" s="2">
         <v>0</v>
@@ -12025,12 +12025,12 @@
         <v>0</v>
       </c>
       <c r="AN94" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B95" s="2">
         <v>0</v>
@@ -12147,12 +12147,12 @@
         <v>0</v>
       </c>
       <c r="AN95" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
@@ -12269,12 +12269,12 @@
         <v>0</v>
       </c>
       <c r="AN96" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B97" s="2">
         <v>0</v>
@@ -12391,12 +12391,12 @@
         <v>0</v>
       </c>
       <c r="AN97" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
@@ -12513,12 +12513,12 @@
         <v>0</v>
       </c>
       <c r="AN98" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
@@ -12635,12 +12635,12 @@
         <v>0</v>
       </c>
       <c r="AN99" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
@@ -12757,12 +12757,12 @@
         <v>0</v>
       </c>
       <c r="AN100" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
@@ -12879,12 +12879,12 @@
         <v>0</v>
       </c>
       <c r="AN101" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B102" s="2">
         <v>0</v>
@@ -13001,12 +13001,12 @@
         <v>0</v>
       </c>
       <c r="AN102" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
@@ -13123,12 +13123,12 @@
         <v>0</v>
       </c>
       <c r="AN103" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B104" s="2">
         <v>0</v>
@@ -13245,12 +13245,12 @@
         <v>0</v>
       </c>
       <c r="AN104" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B105" s="2">
         <v>0</v>
@@ -13367,12 +13367,12 @@
         <v>0</v>
       </c>
       <c r="AN105" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B106" s="2">
         <v>0</v>
@@ -13489,12 +13489,12 @@
         <v>0</v>
       </c>
       <c r="AN106" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B107" s="2">
         <v>0</v>
@@ -13611,12 +13611,12 @@
         <v>0</v>
       </c>
       <c r="AN107" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B108" s="2">
         <v>0</v>
@@ -13733,12 +13733,12 @@
         <v>0</v>
       </c>
       <c r="AN108" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B109" s="2">
         <v>0</v>
@@ -13855,12 +13855,12 @@
         <v>0</v>
       </c>
       <c r="AN109" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B110" s="2">
         <v>0</v>
@@ -13977,12 +13977,12 @@
         <v>0</v>
       </c>
       <c r="AN110" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B111" s="2">
         <v>0</v>
@@ -14099,12 +14099,12 @@
         <v>0</v>
       </c>
       <c r="AN111" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B112" s="2">
         <v>0</v>
@@ -14221,12 +14221,12 @@
         <v>0</v>
       </c>
       <c r="AN112" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B113" s="2">
         <v>0</v>
@@ -14343,12 +14343,12 @@
         <v>0</v>
       </c>
       <c r="AN113" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B114" s="2">
         <v>0</v>
@@ -14465,12 +14465,12 @@
         <v>0</v>
       </c>
       <c r="AN114" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B115" s="2">
         <v>0</v>
@@ -14587,12 +14587,12 @@
         <v>0</v>
       </c>
       <c r="AN115" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B116" s="2">
         <v>0</v>
@@ -14709,12 +14709,12 @@
         <v>0</v>
       </c>
       <c r="AN116" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B117" s="2">
         <v>0</v>
@@ -14831,12 +14831,12 @@
         <v>0</v>
       </c>
       <c r="AN117" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B118" s="2">
         <v>0</v>
@@ -14953,12 +14953,12 @@
         <v>0</v>
       </c>
       <c r="AN118" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B119" s="2">
         <v>0</v>
@@ -15075,12 +15075,12 @@
         <v>0</v>
       </c>
       <c r="AN119" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B120" s="2">
         <v>0</v>
@@ -15197,12 +15197,12 @@
         <v>0</v>
       </c>
       <c r="AN120" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B121" s="2">
         <v>0</v>
@@ -15319,12 +15319,12 @@
         <v>0</v>
       </c>
       <c r="AN121" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B122" s="2">
         <v>0</v>
@@ -15441,12 +15441,12 @@
         <v>0</v>
       </c>
       <c r="AN122" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B123" s="2">
         <v>0</v>
@@ -15563,12 +15563,12 @@
         <v>0</v>
       </c>
       <c r="AN123" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B124" s="2">
         <v>0</v>
@@ -15685,12 +15685,12 @@
         <v>0</v>
       </c>
       <c r="AN124" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B125" s="2">
         <v>0</v>
@@ -15807,12 +15807,12 @@
         <v>0</v>
       </c>
       <c r="AN125" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B126" s="2">
         <v>0</v>
@@ -15929,12 +15929,12 @@
         <v>0</v>
       </c>
       <c r="AN126" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B127" s="2">
         <v>0</v>
@@ -16051,12 +16051,12 @@
         <v>0</v>
       </c>
       <c r="AN127" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B128" s="2">
         <v>0</v>
@@ -16173,12 +16173,12 @@
         <v>0</v>
       </c>
       <c r="AN128" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B129" s="2">
         <v>0</v>
@@ -16295,12 +16295,12 @@
         <v>0</v>
       </c>
       <c r="AN129" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B130" s="2">
         <v>0</v>
@@ -16417,12 +16417,12 @@
         <v>0</v>
       </c>
       <c r="AN130" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B131" s="2">
         <v>0</v>
@@ -16539,12 +16539,12 @@
         <v>0</v>
       </c>
       <c r="AN131" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B132" s="2">
         <v>0</v>
@@ -16661,12 +16661,12 @@
         <v>0</v>
       </c>
       <c r="AN132" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B133" s="2">
         <v>0</v>
@@ -16783,12 +16783,12 @@
         <v>0</v>
       </c>
       <c r="AN133" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B134" s="2">
         <v>0</v>
@@ -16905,12 +16905,12 @@
         <v>0</v>
       </c>
       <c r="AN134" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B135" s="2">
         <v>0</v>
@@ -17027,12 +17027,12 @@
         <v>0</v>
       </c>
       <c r="AN135" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B136" s="2">
         <v>0</v>
@@ -17149,12 +17149,12 @@
         <v>0</v>
       </c>
       <c r="AN136" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B137" s="2">
         <v>0</v>
@@ -17271,12 +17271,12 @@
         <v>0</v>
       </c>
       <c r="AN137" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B138" s="2">
         <v>0</v>
@@ -17393,12 +17393,12 @@
         <v>0</v>
       </c>
       <c r="AN138" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B139" s="2">
         <v>0</v>
@@ -17515,12 +17515,12 @@
         <v>0</v>
       </c>
       <c r="AN139" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B140" s="2">
         <v>0</v>
@@ -17637,12 +17637,12 @@
         <v>0</v>
       </c>
       <c r="AN140" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B141" s="2">
         <v>0</v>
@@ -17759,12 +17759,12 @@
         <v>0</v>
       </c>
       <c r="AN141" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B142" s="2">
         <v>0</v>
@@ -17881,12 +17881,12 @@
         <v>0</v>
       </c>
       <c r="AN142" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B143" s="2">
         <v>0</v>
@@ -18003,12 +18003,12 @@
         <v>0</v>
       </c>
       <c r="AN143" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B144" s="2">
         <v>0</v>
@@ -18125,12 +18125,12 @@
         <v>0</v>
       </c>
       <c r="AN144" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B145" s="2">
         <v>0</v>
@@ -18247,12 +18247,12 @@
         <v>0</v>
       </c>
       <c r="AN145" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B146" s="2">
         <v>0</v>
@@ -18369,12 +18369,12 @@
         <v>0</v>
       </c>
       <c r="AN146" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B147" s="2">
         <v>0</v>
@@ -18491,12 +18491,12 @@
         <v>0</v>
       </c>
       <c r="AN147" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B148" s="2">
         <v>0</v>
@@ -18613,12 +18613,12 @@
         <v>0</v>
       </c>
       <c r="AN148" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B149" s="2">
         <v>0</v>
@@ -18735,12 +18735,12 @@
         <v>0</v>
       </c>
       <c r="AN149" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B150" s="2">
         <v>0</v>
@@ -18857,12 +18857,12 @@
         <v>0</v>
       </c>
       <c r="AN150" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B151" s="2">
         <v>0</v>
@@ -18979,12 +18979,12 @@
         <v>0</v>
       </c>
       <c r="AN151" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B152" s="2">
         <v>0</v>
@@ -19101,12 +19101,12 @@
         <v>0</v>
       </c>
       <c r="AN152" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B153" s="2">
         <v>0</v>
@@ -19223,12 +19223,12 @@
         <v>0</v>
       </c>
       <c r="AN153" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B154" s="2">
         <v>0</v>
@@ -19345,12 +19345,12 @@
         <v>0</v>
       </c>
       <c r="AN154" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B155" s="2">
         <v>0</v>
@@ -19467,12 +19467,12 @@
         <v>0</v>
       </c>
       <c r="AN155" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B156" s="2">
         <v>0</v>
@@ -19589,12 +19589,12 @@
         <v>0</v>
       </c>
       <c r="AN156" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B157" s="2">
         <v>0</v>
@@ -19711,12 +19711,12 @@
         <v>0</v>
       </c>
       <c r="AN157" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B158" s="2">
         <v>0</v>
@@ -19833,12 +19833,12 @@
         <v>0</v>
       </c>
       <c r="AN158" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B159" s="2">
         <v>0</v>
@@ -19955,12 +19955,12 @@
         <v>0</v>
       </c>
       <c r="AN159" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B160" s="2">
         <v>0</v>
@@ -20077,12 +20077,12 @@
         <v>0</v>
       </c>
       <c r="AN160" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B161" s="2">
         <v>0</v>
@@ -20199,12 +20199,12 @@
         <v>0</v>
       </c>
       <c r="AN161" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B162" s="2">
         <v>0</v>
@@ -20321,12 +20321,12 @@
         <v>0</v>
       </c>
       <c r="AN162" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B163" s="2">
         <v>0</v>
@@ -20443,12 +20443,12 @@
         <v>0</v>
       </c>
       <c r="AN163" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B164" s="2">
         <v>0</v>
@@ -20565,12 +20565,12 @@
         <v>0</v>
       </c>
       <c r="AN164" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B165" s="2">
         <v>0</v>
@@ -20687,12 +20687,12 @@
         <v>0</v>
       </c>
       <c r="AN165" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B166" s="2">
         <v>0</v>
@@ -20809,12 +20809,12 @@
         <v>0</v>
       </c>
       <c r="AN166" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B167" s="2">
         <v>0</v>
@@ -20931,12 +20931,12 @@
         <v>0</v>
       </c>
       <c r="AN167" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B168" s="2">
         <v>0</v>
@@ -21053,12 +21053,12 @@
         <v>0</v>
       </c>
       <c r="AN168" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B169" s="2">
         <v>0</v>
@@ -21175,12 +21175,12 @@
         <v>0</v>
       </c>
       <c r="AN169" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B170" s="2">
         <v>0</v>
@@ -21297,12 +21297,12 @@
         <v>0</v>
       </c>
       <c r="AN170" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B171" s="2">
         <v>0</v>
@@ -21419,12 +21419,12 @@
         <v>0</v>
       </c>
       <c r="AN171" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B172" s="2">
         <v>0</v>
@@ -21541,12 +21541,12 @@
         <v>0</v>
       </c>
       <c r="AN172" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B173" s="2">
         <v>0</v>
@@ -21663,12 +21663,12 @@
         <v>0</v>
       </c>
       <c r="AN173" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B174" s="2">
         <v>0</v>
@@ -21785,12 +21785,12 @@
         <v>0</v>
       </c>
       <c r="AN174" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B175" s="2">
         <v>0</v>
@@ -21907,12 +21907,12 @@
         <v>0</v>
       </c>
       <c r="AN175" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B176" s="2">
         <v>0</v>
@@ -22029,12 +22029,12 @@
         <v>0</v>
       </c>
       <c r="AN176" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B177" s="2">
         <v>0</v>
@@ -22151,12 +22151,12 @@
         <v>0</v>
       </c>
       <c r="AN177" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B178" s="2">
         <v>0</v>
@@ -22273,12 +22273,12 @@
         <v>0</v>
       </c>
       <c r="AN178" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B179" s="2">
         <v>0</v>
@@ -22395,12 +22395,12 @@
         <v>0</v>
       </c>
       <c r="AN179" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B180" s="2">
         <v>0</v>
@@ -22517,12 +22517,12 @@
         <v>0</v>
       </c>
       <c r="AN180" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B181" s="2">
         <v>0</v>
@@ -22639,12 +22639,12 @@
         <v>0</v>
       </c>
       <c r="AN181" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B182" s="2">
         <v>0</v>
@@ -22761,12 +22761,12 @@
         <v>0</v>
       </c>
       <c r="AN182" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B183" s="2">
         <v>0</v>
@@ -22883,12 +22883,12 @@
         <v>0</v>
       </c>
       <c r="AN183" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B184" s="2">
         <v>0</v>
@@ -23005,12 +23005,12 @@
         <v>0</v>
       </c>
       <c r="AN184" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B185" s="2">
         <v>0</v>
@@ -23127,12 +23127,12 @@
         <v>0</v>
       </c>
       <c r="AN185" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B186" s="2">
         <v>0</v>
@@ -23249,12 +23249,12 @@
         <v>0</v>
       </c>
       <c r="AN186" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B187" s="2">
         <v>0</v>
@@ -23371,12 +23371,12 @@
         <v>0</v>
       </c>
       <c r="AN187" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B188" s="2">
         <v>0</v>
@@ -23493,12 +23493,12 @@
         <v>0</v>
       </c>
       <c r="AN188" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B189" s="2">
         <v>0</v>
@@ -23615,12 +23615,12 @@
         <v>0</v>
       </c>
       <c r="AN189" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B190" s="2">
         <v>0</v>
@@ -23737,12 +23737,12 @@
         <v>0</v>
       </c>
       <c r="AN190" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B191" s="2">
         <v>0</v>
@@ -23859,12 +23859,12 @@
         <v>0</v>
       </c>
       <c r="AN191" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B192" s="2">
         <v>0</v>
@@ -23981,12 +23981,12 @@
         <v>0</v>
       </c>
       <c r="AN192" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B193" s="2">
         <v>0</v>
@@ -24103,12 +24103,12 @@
         <v>0</v>
       </c>
       <c r="AN193" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B194" s="2">
         <v>0</v>
@@ -24225,12 +24225,12 @@
         <v>0</v>
       </c>
       <c r="AN194" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B195" s="2">
         <v>0</v>
@@ -24347,12 +24347,12 @@
         <v>0</v>
       </c>
       <c r="AN195" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B196" s="2">
         <v>0</v>
@@ -24469,12 +24469,12 @@
         <v>0</v>
       </c>
       <c r="AN196" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B197" s="2">
         <v>0</v>
@@ -24591,12 +24591,12 @@
         <v>0</v>
       </c>
       <c r="AN197" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B198" s="2">
         <v>0</v>
@@ -24713,12 +24713,12 @@
         <v>0</v>
       </c>
       <c r="AN198" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B199" s="2">
         <v>0</v>
@@ -24835,12 +24835,12 @@
         <v>0</v>
       </c>
       <c r="AN199" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B200" s="2">
         <v>0</v>
@@ -24957,12 +24957,12 @@
         <v>0</v>
       </c>
       <c r="AN200" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B201" s="2">
         <v>0</v>
@@ -25079,12 +25079,12 @@
         <v>0</v>
       </c>
       <c r="AN201" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B202" s="2">
         <v>0</v>
@@ -25201,12 +25201,12 @@
         <v>0</v>
       </c>
       <c r="AN202" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B203" s="2">
         <v>0</v>
@@ -25323,12 +25323,12 @@
         <v>0</v>
       </c>
       <c r="AN203" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B204" s="2">
         <v>0</v>
@@ -25445,12 +25445,12 @@
         <v>0</v>
       </c>
       <c r="AN204" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B205" s="2">
         <v>0</v>
@@ -25567,12 +25567,12 @@
         <v>0</v>
       </c>
       <c r="AN205" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B206" s="2">
         <v>0</v>
@@ -25689,12 +25689,12 @@
         <v>0</v>
       </c>
       <c r="AN206" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B207" s="2">
         <v>0</v>
@@ -25811,12 +25811,12 @@
         <v>0</v>
       </c>
       <c r="AN207" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B208" s="2">
         <v>0</v>
@@ -25933,12 +25933,12 @@
         <v>0</v>
       </c>
       <c r="AN208" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B209" s="2">
         <v>0</v>
@@ -26055,12 +26055,12 @@
         <v>0</v>
       </c>
       <c r="AN209" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B210" s="2">
         <v>0</v>
@@ -26177,12 +26177,12 @@
         <v>0</v>
       </c>
       <c r="AN210" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B211" s="2">
         <v>0</v>
@@ -26299,12 +26299,12 @@
         <v>0</v>
       </c>
       <c r="AN211" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B212" s="2">
         <v>0</v>
@@ -26421,12 +26421,12 @@
         <v>0</v>
       </c>
       <c r="AN212" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B213" s="2">
         <v>0</v>
@@ -26543,12 +26543,12 @@
         <v>0</v>
       </c>
       <c r="AN213" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B214" s="2">
         <v>0</v>
@@ -26665,12 +26665,12 @@
         <v>0</v>
       </c>
       <c r="AN214" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B215" s="2">
         <v>0</v>
@@ -26787,12 +26787,12 @@
         <v>0</v>
       </c>
       <c r="AN215" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B216" s="2">
         <v>0</v>
@@ -26909,12 +26909,12 @@
         <v>0</v>
       </c>
       <c r="AN216" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B217" s="2">
         <v>0</v>
@@ -27031,12 +27031,12 @@
         <v>0</v>
       </c>
       <c r="AN217" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B218" s="2">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="AN218" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AO218" s="1"/>
     </row>
     <row r="219" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B219" s="2">
         <v>0</v>
@@ -27276,13 +27276,13 @@
         <v>0</v>
       </c>
       <c r="AN219" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AO219" s="1"/>
     </row>
     <row r="220" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B220" s="2">
         <v>0</v>
@@ -27399,13 +27399,13 @@
         <v>0</v>
       </c>
       <c r="AN220" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AO220" s="1"/>
     </row>
     <row r="221" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B221" s="2">
         <v>0</v>
@@ -27522,13 +27522,13 @@
         <v>0</v>
       </c>
       <c r="AN221" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AO221" s="1"/>
     </row>
     <row r="222" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B222" s="2">
         <v>0</v>
@@ -27645,13 +27645,13 @@
         <v>0</v>
       </c>
       <c r="AN222" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AO222" s="1"/>
     </row>
     <row r="223" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B223" s="2">
         <v>0</v>
@@ -27768,13 +27768,13 @@
         <v>0</v>
       </c>
       <c r="AN223" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AO223" s="1"/>
     </row>
     <row r="224" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B224" s="2">
         <v>0</v>
@@ -27891,13 +27891,13 @@
         <v>0</v>
       </c>
       <c r="AN224" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AO224" s="1"/>
     </row>
     <row r="225" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B225" s="2">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="AN225" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AO225" s="1"/>
     </row>
     <row r="226" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B226" s="2">
         <v>0</v>
@@ -28137,13 +28137,13 @@
         <v>0</v>
       </c>
       <c r="AN226" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AO226" s="1"/>
     </row>
     <row r="227" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B227" s="2">
         <v>0</v>
@@ -28260,12 +28260,12 @@
         <v>0</v>
       </c>
       <c r="AN227" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B228" s="2">
         <v>0</v>
@@ -28382,12 +28382,12 @@
         <v>0</v>
       </c>
       <c r="AN228" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B229" s="2">
         <v>0</v>
@@ -28504,12 +28504,12 @@
         <v>0</v>
       </c>
       <c r="AN229" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B230" s="2">
         <v>0</v>
@@ -28626,12 +28626,12 @@
         <v>0</v>
       </c>
       <c r="AN230" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B231" s="2">
         <v>0</v>
@@ -28748,12 +28748,12 @@
         <v>0</v>
       </c>
       <c r="AN231" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B232" s="2">
         <v>0</v>
@@ -28870,12 +28870,12 @@
         <v>0</v>
       </c>
       <c r="AN232" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B233" s="2">
         <v>0</v>
@@ -28992,12 +28992,12 @@
         <v>0</v>
       </c>
       <c r="AN233" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B234" s="2">
         <v>0</v>
@@ -29114,12 +29114,12 @@
         <v>0</v>
       </c>
       <c r="AN234" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B235" s="2">
         <v>0</v>
@@ -29236,12 +29236,12 @@
         <v>0</v>
       </c>
       <c r="AN235" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B236" s="2">
         <v>0</v>
@@ -29358,12 +29358,12 @@
         <v>0</v>
       </c>
       <c r="AN236" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B237" s="2">
         <v>0</v>
@@ -29480,12 +29480,12 @@
         <v>0</v>
       </c>
       <c r="AN237" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B238" s="2">
         <v>0</v>
@@ -29602,12 +29602,12 @@
         <v>0</v>
       </c>
       <c r="AN238" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B239" s="2">
         <v>0</v>
@@ -29724,12 +29724,12 @@
         <v>0</v>
       </c>
       <c r="AN239" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B240" s="2">
         <v>0</v>
@@ -29846,12 +29846,12 @@
         <v>0</v>
       </c>
       <c r="AN240" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B241" s="2">
         <v>0</v>
@@ -29968,12 +29968,12 @@
         <v>0</v>
       </c>
       <c r="AN241" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B242" s="2">
         <v>0</v>
@@ -30090,12 +30090,12 @@
         <v>0</v>
       </c>
       <c r="AN242" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B243" s="2">
         <v>0</v>
@@ -30212,12 +30212,12 @@
         <v>0</v>
       </c>
       <c r="AN243" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B244" s="2">
         <v>0</v>
@@ -30334,12 +30334,12 @@
         <v>0</v>
       </c>
       <c r="AN244" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B245" s="2">
         <v>0</v>
@@ -30456,12 +30456,12 @@
         <v>0</v>
       </c>
       <c r="AN245" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B246" s="2">
         <v>0</v>
@@ -30578,12 +30578,12 @@
         <v>0</v>
       </c>
       <c r="AN246" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B247" s="2">
         <v>0</v>
@@ -30700,12 +30700,12 @@
         <v>0</v>
       </c>
       <c r="AN247" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B248" s="2">
         <v>0</v>
@@ -30822,12 +30822,12 @@
         <v>0</v>
       </c>
       <c r="AN248" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B249" s="2">
         <v>0</v>
@@ -30944,12 +30944,12 @@
         <v>0</v>
       </c>
       <c r="AN249" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B250" s="2">
         <v>0</v>
@@ -31066,12 +31066,12 @@
         <v>0</v>
       </c>
       <c r="AN250" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B251" s="2">
         <v>0</v>
@@ -31188,12 +31188,12 @@
         <v>0</v>
       </c>
       <c r="AN251" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B252" s="2">
         <v>0</v>
@@ -31310,12 +31310,12 @@
         <v>0</v>
       </c>
       <c r="AN252" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B253" s="2">
         <v>0</v>
@@ -31432,12 +31432,12 @@
         <v>0</v>
       </c>
       <c r="AN253" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B254" s="2">
         <v>0</v>
@@ -31554,12 +31554,12 @@
         <v>0</v>
       </c>
       <c r="AN254" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B255" s="2">
         <v>0</v>
@@ -31676,12 +31676,12 @@
         <v>0</v>
       </c>
       <c r="AN255" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B256" s="2">
         <v>0</v>
@@ -31798,12 +31798,12 @@
         <v>0</v>
       </c>
       <c r="AN256" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B257" s="2">
         <v>0</v>
@@ -31920,12 +31920,12 @@
         <v>0</v>
       </c>
       <c r="AN257" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B258" s="2">
         <v>0</v>
@@ -32042,12 +32042,12 @@
         <v>0</v>
       </c>
       <c r="AN258" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B259" s="2">
         <v>0</v>
@@ -32164,12 +32164,12 @@
         <v>0</v>
       </c>
       <c r="AN259" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B260" s="2">
         <v>0</v>
@@ -32286,12 +32286,12 @@
         <v>0</v>
       </c>
       <c r="AN260" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B261" s="2">
         <v>0</v>
@@ -32408,12 +32408,12 @@
         <v>0</v>
       </c>
       <c r="AN261" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B262" s="2">
         <v>0</v>
@@ -32530,12 +32530,12 @@
         <v>0</v>
       </c>
       <c r="AN262" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B263" s="2">
         <v>0</v>
@@ -32652,12 +32652,12 @@
         <v>0</v>
       </c>
       <c r="AN263" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B264" s="2">
         <v>0</v>
@@ -32774,12 +32774,12 @@
         <v>0</v>
       </c>
       <c r="AN264" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B265" s="2">
         <v>0</v>
@@ -32896,12 +32896,12 @@
         <v>0</v>
       </c>
       <c r="AN265" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B266" s="2">
         <v>0</v>
@@ -33018,12 +33018,12 @@
         <v>0</v>
       </c>
       <c r="AN266" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B267" s="2">
         <v>0</v>
@@ -33140,12 +33140,12 @@
         <v>0</v>
       </c>
       <c r="AN267" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B268" s="2">
         <v>0</v>
@@ -33262,12 +33262,12 @@
         <v>0</v>
       </c>
       <c r="AN268" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B269" s="2">
         <v>0</v>
@@ -33384,12 +33384,12 @@
         <v>0</v>
       </c>
       <c r="AN269" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B270" s="2">
         <v>0</v>
@@ -33506,12 +33506,12 @@
         <v>0</v>
       </c>
       <c r="AN270" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B271" s="2">
         <v>0</v>
@@ -33628,12 +33628,12 @@
         <v>0</v>
       </c>
       <c r="AN271" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B272" s="2">
         <v>0</v>
@@ -33750,12 +33750,12 @@
         <v>0</v>
       </c>
       <c r="AN272" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B273" s="2">
         <v>0</v>
@@ -33872,12 +33872,12 @@
         <v>0</v>
       </c>
       <c r="AN273" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B274" s="2">
         <v>0</v>
@@ -33994,12 +33994,12 @@
         <v>0</v>
       </c>
       <c r="AN274" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B275" s="2">
         <v>0</v>
@@ -34116,12 +34116,12 @@
         <v>0</v>
       </c>
       <c r="AN275" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B276" s="2">
         <v>0</v>
@@ -34238,12 +34238,12 @@
         <v>0</v>
       </c>
       <c r="AN276" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B277" s="2">
         <v>0</v>
@@ -34360,12 +34360,12 @@
         <v>0</v>
       </c>
       <c r="AN277" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B278" s="2">
         <v>0</v>
@@ -34482,12 +34482,12 @@
         <v>0</v>
       </c>
       <c r="AN278" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B279" s="2">
         <v>0</v>
@@ -34604,12 +34604,12 @@
         <v>0</v>
       </c>
       <c r="AN279" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B280" s="2">
         <v>0</v>
@@ -34726,12 +34726,12 @@
         <v>0</v>
       </c>
       <c r="AN280" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B281" s="2">
         <v>0</v>
@@ -34848,7 +34848,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -34856,49 +34856,49 @@
         <v>1</v>
       </c>
       <c r="B282" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P282" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="Q282" s="2">
         <v>0</v>
@@ -34970,7 +34970,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -34978,7 +34978,7 @@
         <v>1</v>
       </c>
       <c r="B283" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" s="2">
         <v>1</v>
@@ -35020,7 +35020,7 @@
         <v>1</v>
       </c>
       <c r="P283" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q283" s="2">
         <v>0</v>
@@ -35092,7 +35092,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -35100,7 +35100,7 @@
         <v>1</v>
       </c>
       <c r="B284" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" s="2">
         <v>1</v>
@@ -35142,7 +35142,7 @@
         <v>1</v>
       </c>
       <c r="P284" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q284" s="2">
         <v>0</v>
@@ -35214,7 +35214,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -35222,7 +35222,7 @@
         <v>1</v>
       </c>
       <c r="B285" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" s="2">
         <v>1</v>
@@ -35264,7 +35264,7 @@
         <v>1</v>
       </c>
       <c r="P285" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q285" s="2">
         <v>0</v>
@@ -35336,7 +35336,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -35389,73 +35389,73 @@
         <v>1</v>
       </c>
       <c r="Q286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM286" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN286" s="2">
         <v>1</v>
@@ -37175,7 +37175,7 @@
       <formula>A1048563=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AN106 B2:AM217 A107:X117 Y107:AN118 A118:A124 B119:AN124 A125:AN300 AO218:AO226">
+  <conditionalFormatting sqref="A1:AN106 A107:X117 Y107:AN118 B119:AN124 A125:AN300 AO218:AO226 AN18:AN284 B2:AM217 A19:A281">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>50</formula>
     </cfRule>
@@ -37189,7 +37189,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AN300 AO218:AO226">
+  <conditionalFormatting sqref="AO218:AO226 A1:AN300">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>60</formula>
     </cfRule>
